--- a/src/main/2 insert Sozialversicherungsdaten/6 Arbeitsort Sachsen Arbeitgeber PV-Beitrag.xlsx
+++ b/src/main/2 insert Sozialversicherungsdaten/6 Arbeitsort Sachsen Arbeitgeber PV-Beitrag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\1 insert Sozialversicherungsdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\2 insert Sozialversicherungsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102A14F6-631C-4CD0-A47E-815EB5479073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E7D0F-B7F0-423E-9505-249F4674A63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="3072" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2292" yWindow="1752" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,10 @@
     <t>Eintragungsdatum</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>Arbeitsort Sachsen?</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,10 +583,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -602,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
